--- a/Ceny_ofertowe_fabryczna_19_legnica_2025_08_08.xlsx
+++ b/Ceny_ofertowe_fabryczna_19_legnica_2025_08_08.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{C625EF9E-6900-4134-8BC9-ADE9E5A1FFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD68687C-351E-4B06-A468-607E6AB963C0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9520446-D4EE-4CEC-8D31-F97D9AA27A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{336D2583-5C4C-4C42-9206-61D546232E49}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>Nazwa dewelopera</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>A.01.KL01</t>
+  </si>
+  <si>
+    <t>https://f19.pl/o_inwestycji_mieszkania_sprzedaz_legnica</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33353A-1A07-421F-B982-7CDBB172178E}">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1106,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.35">
@@ -1273,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.35">
@@ -1440,7 +1445,7 @@
         <v>26</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.35">
@@ -1607,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1617,13 +1622,13 @@
     <hyperlink ref="BF2" r:id="rId3" xr:uid="{609C05F1-0829-4BCA-BD36-1022F0E30849}"/>
     <hyperlink ref="H3" r:id="rId4" xr:uid="{1BA7DF21-C65C-4799-837B-F7B91797B5D9}"/>
     <hyperlink ref="J3" r:id="rId5" xr:uid="{5A4ABB9C-40BB-44DB-9677-4E56E1CCE300}"/>
-    <hyperlink ref="BF3" r:id="rId6" xr:uid="{D048BFC2-7E70-4E31-8C1A-AEC2373E2D53}"/>
-    <hyperlink ref="H4" r:id="rId7" xr:uid="{470B2138-071F-49C5-9B2A-92A6B702F6EC}"/>
-    <hyperlink ref="J4" r:id="rId8" xr:uid="{D58EAB6F-1677-4BFE-A4D8-F4F6B87713CE}"/>
-    <hyperlink ref="BF4" r:id="rId9" xr:uid="{7D70738F-4065-4D87-85F0-E17D22D1F910}"/>
-    <hyperlink ref="H5" r:id="rId10" xr:uid="{00CC92D4-C33B-4BC1-94C0-93BA5AF0E1BB}"/>
-    <hyperlink ref="J5" r:id="rId11" xr:uid="{9CA829CF-6884-4AAE-9DF1-EA8B9856C60E}"/>
-    <hyperlink ref="BF5" r:id="rId12" xr:uid="{D7E21AFF-5295-47B3-9881-259D35F6206D}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{470B2138-071F-49C5-9B2A-92A6B702F6EC}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{D58EAB6F-1677-4BFE-A4D8-F4F6B87713CE}"/>
+    <hyperlink ref="H5" r:id="rId8" xr:uid="{00CC92D4-C33B-4BC1-94C0-93BA5AF0E1BB}"/>
+    <hyperlink ref="J5" r:id="rId9" xr:uid="{9CA829CF-6884-4AAE-9DF1-EA8B9856C60E}"/>
+    <hyperlink ref="BF3" r:id="rId10" xr:uid="{DBACAD00-F1A2-4CCE-B80F-B5F534C55E66}"/>
+    <hyperlink ref="BF4" r:id="rId11" xr:uid="{F72DDC82-D167-4E10-AE77-40B1F89C81C8}"/>
+    <hyperlink ref="BF5" r:id="rId12" xr:uid="{B0AC18A3-229F-49B6-B5B7-4ACA5EB0F0E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ceny_ofertowe_fabryczna_19_legnica_2025_08_08.xlsx
+++ b/Ceny_ofertowe_fabryczna_19_legnica_2025_08_08.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970A6440-9663-4CC0-8FDC-9422DA9D3F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E3C9F-93FD-41B2-B618-A8426674CB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{336D2583-5C4C-4C42-9206-61D546232E49}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="134">
   <si>
     <t>Nazwa dewelopera</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>A27</t>
-  </si>
-  <si>
-    <t>A28</t>
   </si>
   <si>
     <t>A30</t>
@@ -445,8 +442,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="00\-000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="#,##0\ &quot;zł&quot;"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ &quot;zł&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -517,14 +514,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -860,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA33353A-1A07-421F-B982-7CDBB172178E}">
-  <dimension ref="A1:AN69"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" topLeftCell="AC12" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1021,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM1" s="4" t="s">
         <v>40</v>
@@ -3940,10 +3937,10 @@
         <v>91</v>
       </c>
       <c r="AI25" s="11">
-        <v>8045.3</v>
+        <v>9052.3799999999992</v>
       </c>
       <c r="AJ25" s="13">
-        <v>547000</v>
+        <v>534000</v>
       </c>
       <c r="AK25" s="4">
         <v>45877.666666666664</v>
@@ -4062,10 +4059,10 @@
         <v>92</v>
       </c>
       <c r="AI26" s="11">
-        <v>9052.3799999999992</v>
+        <v>7898.2</v>
       </c>
       <c r="AJ26" s="13">
-        <v>534000</v>
+        <v>540000</v>
       </c>
       <c r="AK26" s="4">
         <v>45877.666666666664</v>
@@ -4184,10 +4181,10 @@
         <v>93</v>
       </c>
       <c r="AI27" s="11">
-        <v>7898.2</v>
+        <v>8435.41</v>
       </c>
       <c r="AJ27" s="13">
-        <v>540000</v>
+        <v>303000</v>
       </c>
       <c r="AK27" s="4">
         <v>45877.666666666664</v>
@@ -4306,10 +4303,10 @@
         <v>94</v>
       </c>
       <c r="AI28" s="11">
-        <v>8435.41</v>
+        <v>8459.5</v>
       </c>
       <c r="AJ28" s="13">
-        <v>303000</v>
+        <v>352000</v>
       </c>
       <c r="AK28" s="4">
         <v>45877.666666666664</v>
@@ -4428,10 +4425,10 @@
         <v>95</v>
       </c>
       <c r="AI29" s="11">
-        <v>8459.5</v>
+        <v>8056.16</v>
       </c>
       <c r="AJ29" s="13">
-        <v>352000</v>
+        <v>482000</v>
       </c>
       <c r="AK29" s="4">
         <v>45877.666666666664</v>
@@ -4550,7 +4547,7 @@
         <v>96</v>
       </c>
       <c r="AI30" s="11">
-        <v>8056.16</v>
+        <v>8075.05</v>
       </c>
       <c r="AJ30" s="13">
         <v>482000</v>
@@ -4666,25 +4663,25 @@
         <v>53</v>
       </c>
       <c r="AG31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI31" s="11">
-        <v>8075.05</v>
-      </c>
-      <c r="AJ31" s="13">
-        <v>482000</v>
+        <v>10</v>
+      </c>
+      <c r="AH31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI31" s="10">
+        <v>2400</v>
+      </c>
+      <c r="AJ31" s="12">
+        <v>30000</v>
       </c>
       <c r="AK31" s="4">
         <v>45877.666666666664</v>
       </c>
-      <c r="AL31" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="AM31" s="4">
-        <v>45877.666666666664</v>
+      <c r="AL31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM31" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="AN31" s="7" t="s">
         <v>65</v>
@@ -4790,8 +4787,8 @@
       <c r="AG32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AH32" s="5" t="s">
-        <v>62</v>
+      <c r="AH32" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="AI32" s="10">
         <v>2400</v>
@@ -5645,13 +5642,13 @@
         <v>10</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="AI39" s="10">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="AJ39" s="12">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="AK39" s="4">
         <v>45877.666666666664</v>
@@ -6133,13 +6130,13 @@
         <v>10</v>
       </c>
       <c r="AH43" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="AI43" s="10">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="AJ43" s="12">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="AK43" s="4">
         <v>45877.666666666664</v>
@@ -8082,16 +8079,16 @@
         <v>53</v>
       </c>
       <c r="AG59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH59" s="1" t="s">
-        <v>120</v>
+        <v>63</v>
+      </c>
+      <c r="AH59" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="AI59" s="10">
-        <v>1200</v>
+        <v>3076.92</v>
       </c>
       <c r="AJ59" s="12">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AK59" s="4">
         <v>45877.666666666664</v>
@@ -8206,11 +8203,11 @@
       <c r="AG60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AH60" s="5" t="s">
-        <v>64</v>
+      <c r="AH60" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="AI60" s="10">
-        <v>3076.92</v>
+        <v>4484.3</v>
       </c>
       <c r="AJ60" s="12">
         <v>10000</v>
@@ -8332,7 +8329,7 @@
         <v>125</v>
       </c>
       <c r="AI61" s="10">
-        <v>4484.3</v>
+        <v>7692.31</v>
       </c>
       <c r="AJ61" s="12">
         <v>10000</v>
@@ -8454,7 +8451,7 @@
         <v>126</v>
       </c>
       <c r="AI62" s="10">
-        <v>7692.31</v>
+        <v>3717.47</v>
       </c>
       <c r="AJ62" s="12">
         <v>10000</v>
@@ -8576,7 +8573,7 @@
         <v>127</v>
       </c>
       <c r="AI63" s="10">
-        <v>3717.47</v>
+        <v>3067.48</v>
       </c>
       <c r="AJ63" s="12">
         <v>10000</v>
@@ -8698,7 +8695,7 @@
         <v>128</v>
       </c>
       <c r="AI64" s="10">
-        <v>3067.48</v>
+        <v>4484.3</v>
       </c>
       <c r="AJ64" s="12">
         <v>10000</v>
@@ -8820,7 +8817,7 @@
         <v>129</v>
       </c>
       <c r="AI65" s="10">
-        <v>4484.3</v>
+        <v>7692.31</v>
       </c>
       <c r="AJ65" s="12">
         <v>10000</v>
@@ -8942,7 +8939,7 @@
         <v>130</v>
       </c>
       <c r="AI66" s="10">
-        <v>7692.31</v>
+        <v>4484.3</v>
       </c>
       <c r="AJ66" s="12">
         <v>10000</v>
@@ -9064,7 +9061,7 @@
         <v>131</v>
       </c>
       <c r="AI67" s="10">
-        <v>4484.3</v>
+        <v>7692.31</v>
       </c>
       <c r="AJ67" s="12">
         <v>10000</v>
@@ -9186,7 +9183,7 @@
         <v>132</v>
       </c>
       <c r="AI68" s="10">
-        <v>7692.31</v>
+        <v>3717.47</v>
       </c>
       <c r="AJ68" s="12">
         <v>10000</v>
@@ -9201,128 +9198,6 @@
         <v>14</v>
       </c>
       <c r="AN68" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:40" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="1">
-        <v>7393906390</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N69" s="2">
-        <v>29</v>
-      </c>
-      <c r="O69" s="2">
-        <v>8</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R69" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="S69" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T69" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U69" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V69" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="W69" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="X69" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y69" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z69" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA69" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB69" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC69" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD69" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE69" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF69" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG69" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH69" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI69" s="10">
-        <v>3717.47</v>
-      </c>
-      <c r="AJ69" s="12">
-        <v>10000</v>
-      </c>
-      <c r="AK69" s="4">
-        <v>45877.666666666664</v>
-      </c>
-      <c r="AL69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN69" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -9376,162 +9251,159 @@
     <hyperlink ref="H23" r:id="rId46" xr:uid="{89A7AF71-3D5C-4A74-8E97-7852BD5019C8}"/>
     <hyperlink ref="G24" r:id="rId47" xr:uid="{C0D986C6-24F9-4F0F-AA24-88DF1CD67188}"/>
     <hyperlink ref="H24" r:id="rId48" xr:uid="{18885AD3-A3BB-44CA-BFA3-7311F36E7394}"/>
-    <hyperlink ref="G25" r:id="rId49" xr:uid="{159E23F5-7F7B-4035-896C-B3864FFAA586}"/>
-    <hyperlink ref="H25" r:id="rId50" xr:uid="{9AFB9692-4D3C-40DF-AEBE-F192968880E8}"/>
-    <hyperlink ref="G26" r:id="rId51" xr:uid="{E46CA761-281C-47BA-8DFA-FE2DFCA3FFF4}"/>
-    <hyperlink ref="H26" r:id="rId52" xr:uid="{44467B57-8C98-4068-BE7D-7AC280F7D02B}"/>
-    <hyperlink ref="G27" r:id="rId53" xr:uid="{7E1DFCCC-867D-4E48-8EB5-90CFB5B46849}"/>
-    <hyperlink ref="H27" r:id="rId54" xr:uid="{C9B34EE5-FD38-4CF3-BCE2-0387AB9CFC51}"/>
-    <hyperlink ref="G28" r:id="rId55" xr:uid="{D22A6EAE-624B-41F4-B983-E12062C84A52}"/>
-    <hyperlink ref="H28" r:id="rId56" xr:uid="{2642CA26-205C-4AB5-AA2C-9CFF876D9E0F}"/>
-    <hyperlink ref="G29" r:id="rId57" xr:uid="{5619EB6E-978B-49FE-B975-704C7472D76B}"/>
-    <hyperlink ref="H29" r:id="rId58" xr:uid="{E29FA321-FC3E-42D5-819A-EAE3F2D1BA73}"/>
-    <hyperlink ref="G30" r:id="rId59" xr:uid="{36A1E00C-8296-4328-850F-F0C1AD3C4257}"/>
-    <hyperlink ref="H30" r:id="rId60" xr:uid="{3C2B024E-F8C0-483D-81B8-0417D7B79BD6}"/>
-    <hyperlink ref="G31" r:id="rId61" xr:uid="{4A08B599-266C-4D12-A38D-E0E297FA69BB}"/>
-    <hyperlink ref="H31" r:id="rId62" xr:uid="{0FBF07CE-014F-40E6-A1A1-5848B325B5ED}"/>
-    <hyperlink ref="G32" r:id="rId63" xr:uid="{7509B5FE-4570-4153-ADE5-4350FBF87F6A}"/>
-    <hyperlink ref="H32" r:id="rId64" xr:uid="{E020CBA2-9195-4A3A-90E2-E87CB80C4E8D}"/>
-    <hyperlink ref="G33" r:id="rId65" xr:uid="{07A69681-F389-4015-8C43-08D2737BA8A1}"/>
-    <hyperlink ref="H33" r:id="rId66" xr:uid="{9C47ED04-CB8C-4948-A10C-CA027B0E9B20}"/>
-    <hyperlink ref="G34" r:id="rId67" xr:uid="{4E3E3D66-BBD4-4146-BBF4-DB605E6B9751}"/>
-    <hyperlink ref="H34" r:id="rId68" xr:uid="{2A5E80CA-4DB7-41E9-B8FD-CF6C28ED37D3}"/>
-    <hyperlink ref="G35" r:id="rId69" xr:uid="{B9BD559F-55E3-4B3C-A70F-23BAB87175ED}"/>
-    <hyperlink ref="H35" r:id="rId70" xr:uid="{65966D28-A4C1-42B4-825D-67FA946A06AE}"/>
-    <hyperlink ref="AN4" r:id="rId71" xr:uid="{3CA4F8A7-1822-492B-88C4-1B7684096CF2}"/>
-    <hyperlink ref="AN5" r:id="rId72" xr:uid="{C3A7A290-6E33-47FC-8A97-A9345A5A24CD}"/>
-    <hyperlink ref="AN6" r:id="rId73" xr:uid="{53A0AE39-277D-4F8E-87B7-D501C8C0736C}"/>
-    <hyperlink ref="AN7" r:id="rId74" xr:uid="{CA42B070-4596-410A-9D32-ECEB420EC0DD}"/>
-    <hyperlink ref="AN8" r:id="rId75" xr:uid="{D14606B1-A078-46AA-88FD-E745C244E556}"/>
-    <hyperlink ref="AN9" r:id="rId76" xr:uid="{A646F727-3BFC-4E7C-9D0F-53E436F424B7}"/>
-    <hyperlink ref="AN10" r:id="rId77" xr:uid="{8C7D6DF0-3519-4DF0-B39F-4DD3E688F477}"/>
-    <hyperlink ref="AN11" r:id="rId78" xr:uid="{73F4FA85-ECC9-4D66-829B-EAA079C932F5}"/>
-    <hyperlink ref="AN12" r:id="rId79" xr:uid="{CF0BE034-C493-4C4A-A91E-6F33D6A77C7B}"/>
-    <hyperlink ref="AN13" r:id="rId80" xr:uid="{4B2BAB05-FF3F-4753-97E9-B83C48262BEE}"/>
-    <hyperlink ref="AN14" r:id="rId81" xr:uid="{F1FED365-EF16-4036-86B7-D0FE63F35263}"/>
-    <hyperlink ref="AN15" r:id="rId82" xr:uid="{0584BA22-C030-4106-9B92-3A0495D4CE1C}"/>
-    <hyperlink ref="AN16" r:id="rId83" xr:uid="{292935DC-EBED-4A6E-9779-CEA76B6B3788}"/>
-    <hyperlink ref="AN17" r:id="rId84" xr:uid="{3E07637E-5CE2-4CB1-9CAF-F8A144C9E96F}"/>
-    <hyperlink ref="AN18" r:id="rId85" xr:uid="{2B6293C3-1A4A-4A8B-98AF-4A676C011F68}"/>
-    <hyperlink ref="AN19" r:id="rId86" xr:uid="{2951BFED-31C5-4974-B4CE-05D324D34D42}"/>
-    <hyperlink ref="AN20" r:id="rId87" xr:uid="{540C4582-671B-4CDA-8DC1-DC9804009EC0}"/>
-    <hyperlink ref="AN21" r:id="rId88" xr:uid="{551573B8-0F0C-4C43-AEE7-28D1D2567CD0}"/>
-    <hyperlink ref="AN22" r:id="rId89" xr:uid="{361CB1A8-E6F9-44E1-9662-827ED46F1E14}"/>
-    <hyperlink ref="AN23" r:id="rId90" xr:uid="{CDA1FDDF-9D36-48DF-9B01-B9C0B907AD09}"/>
-    <hyperlink ref="AN24" r:id="rId91" xr:uid="{F900E687-DA83-4043-AA2B-EC073F0313BC}"/>
-    <hyperlink ref="AN25" r:id="rId92" xr:uid="{4E475E0E-593A-4E73-A650-10B92BC64104}"/>
-    <hyperlink ref="AN26" r:id="rId93" xr:uid="{C642E85F-8556-4A5B-879A-2CE39B7FD23B}"/>
-    <hyperlink ref="AN27" r:id="rId94" xr:uid="{22E19612-1100-4E65-B53B-AE4876C6C07E}"/>
-    <hyperlink ref="AN28" r:id="rId95" xr:uid="{0C7B9F55-2FD2-4785-A0E8-E1597E242CEF}"/>
-    <hyperlink ref="AN29" r:id="rId96" xr:uid="{4901E2C3-CCDA-4E8E-88D4-0E9987624CA4}"/>
-    <hyperlink ref="AN30" r:id="rId97" xr:uid="{CBDDBA85-5263-4598-837C-528B6D348E2B}"/>
-    <hyperlink ref="AN31" r:id="rId98" xr:uid="{E757103C-1331-4D69-A0A1-6FC4CAAB8F18}"/>
-    <hyperlink ref="AN32" r:id="rId99" xr:uid="{D9BC9E5C-4CA9-41FD-B58E-AF7600269307}"/>
-    <hyperlink ref="AN33" r:id="rId100" xr:uid="{73E4E211-B146-4056-B462-4F20F580BA21}"/>
-    <hyperlink ref="AN34" r:id="rId101" xr:uid="{A0FC9CBE-49B1-4082-B625-A06A71D8B688}"/>
-    <hyperlink ref="AN35" r:id="rId102" xr:uid="{00B7A782-6CD3-4C75-BDDD-058B384588F4}"/>
-    <hyperlink ref="G36" r:id="rId103" xr:uid="{B620D0BF-033D-4129-8CC3-44E5E1FCE96D}"/>
-    <hyperlink ref="G37" r:id="rId104" xr:uid="{D7FB1204-EA24-4D1D-9179-F7D9E5F735AD}"/>
-    <hyperlink ref="G38" r:id="rId105" xr:uid="{FE45638A-D824-4669-9009-67B97DDA06E1}"/>
-    <hyperlink ref="G39" r:id="rId106" xr:uid="{89445CF2-1F61-4D51-B168-21F32E1E5074}"/>
-    <hyperlink ref="G40" r:id="rId107" xr:uid="{9F83FD91-41A3-4BB7-86A0-6CE68D633388}"/>
-    <hyperlink ref="G41" r:id="rId108" xr:uid="{32E9E966-6170-4FC6-BD9F-5C40A3A39BDC}"/>
-    <hyperlink ref="G42" r:id="rId109" xr:uid="{2A413314-6AB9-4816-8E52-FFEBCAB829F5}"/>
-    <hyperlink ref="G43" r:id="rId110" xr:uid="{95B4C6FA-84FC-42F2-B84A-66D8C83BBCED}"/>
-    <hyperlink ref="G44" r:id="rId111" xr:uid="{6AE5EC39-7457-406C-B9E8-4764FF9E71EE}"/>
-    <hyperlink ref="G45" r:id="rId112" xr:uid="{6B324292-B9CE-4496-9632-D52B98C7AB02}"/>
-    <hyperlink ref="G46" r:id="rId113" xr:uid="{0B7844A1-6308-4F48-BA1B-F827F1999B13}"/>
-    <hyperlink ref="G47" r:id="rId114" xr:uid="{7F7A748E-B2DF-4AC8-A429-439492DD340F}"/>
-    <hyperlink ref="G48" r:id="rId115" xr:uid="{A62093C9-6125-4691-BB5F-2344CC34BF97}"/>
-    <hyperlink ref="G49" r:id="rId116" xr:uid="{A3265537-DB3F-4B55-9777-FBA91C16E829}"/>
-    <hyperlink ref="G50" r:id="rId117" xr:uid="{56C6B16B-775C-4B65-8C92-D228D8ED1051}"/>
-    <hyperlink ref="G51" r:id="rId118" xr:uid="{E9998D82-6593-4A4C-9A61-1C9E2F9FE6F0}"/>
-    <hyperlink ref="G52" r:id="rId119" xr:uid="{5AF090CE-2FC0-4270-8399-3C18CE80ED8D}"/>
-    <hyperlink ref="G53" r:id="rId120" xr:uid="{F5A7E66E-0696-4A59-8E9C-6A33B79984C0}"/>
-    <hyperlink ref="G54" r:id="rId121" xr:uid="{D5BF7878-A5DA-4B83-8438-293EC65A382B}"/>
-    <hyperlink ref="G55" r:id="rId122" xr:uid="{FB039C7D-C03C-49B9-89C4-91F94AE6D0FE}"/>
-    <hyperlink ref="G56" r:id="rId123" xr:uid="{A71B16BC-6B98-4230-976B-CE576389681A}"/>
-    <hyperlink ref="G57" r:id="rId124" xr:uid="{B6D41E06-FB84-42A2-9305-B7D9A7987FEA}"/>
-    <hyperlink ref="G58" r:id="rId125" xr:uid="{4AD26144-00F8-48DE-B251-7E49C829C73D}"/>
-    <hyperlink ref="G59" r:id="rId126" xr:uid="{FABAD3ED-30F7-4358-BCDF-51710DE9660A}"/>
-    <hyperlink ref="H36" r:id="rId127" xr:uid="{C1C03C6E-7108-425B-AC03-FBF005A4DB5E}"/>
-    <hyperlink ref="H37" r:id="rId128" xr:uid="{F80B28B9-3587-4F28-BCCF-C60626C03725}"/>
-    <hyperlink ref="H38" r:id="rId129" xr:uid="{883C2D55-3DF5-41AE-B75E-3FBB98B0EE81}"/>
-    <hyperlink ref="H39" r:id="rId130" xr:uid="{1707D531-29BE-4896-8D94-99C64100E090}"/>
-    <hyperlink ref="H40" r:id="rId131" xr:uid="{A51C2798-2FFB-4173-B312-F1DECEA1B966}"/>
-    <hyperlink ref="H41" r:id="rId132" xr:uid="{A107C74D-EA63-4145-9D31-4FF7919A87AF}"/>
-    <hyperlink ref="H42" r:id="rId133" xr:uid="{6A22AAB2-4CC1-42DE-8936-8BB3FADF942C}"/>
-    <hyperlink ref="H43" r:id="rId134" xr:uid="{697D2CE5-58FC-438A-AE0B-51C2BF28E90E}"/>
-    <hyperlink ref="H44" r:id="rId135" xr:uid="{45321EF8-1DD2-4D57-B913-1284147B4A3B}"/>
-    <hyperlink ref="H45" r:id="rId136" xr:uid="{0E646CBD-26E5-4175-B61D-E4769B47FD63}"/>
-    <hyperlink ref="H46" r:id="rId137" xr:uid="{D4AF459C-947A-4EAB-9463-C3C5F232E345}"/>
-    <hyperlink ref="H47" r:id="rId138" xr:uid="{C7131782-C796-45BF-B5DD-A7300BC0C9DE}"/>
-    <hyperlink ref="H48" r:id="rId139" xr:uid="{8CC6DCA7-7AE5-423C-B461-50809ED5F667}"/>
-    <hyperlink ref="H49" r:id="rId140" xr:uid="{644AFB58-051E-4619-B842-7DEC4E85376E}"/>
-    <hyperlink ref="H50" r:id="rId141" xr:uid="{858C5AEE-7E9F-4122-B1CE-48B5480DE4DE}"/>
-    <hyperlink ref="H51" r:id="rId142" xr:uid="{B3F91ABF-AA50-4485-A68C-FDB529E1C6EE}"/>
-    <hyperlink ref="H52" r:id="rId143" xr:uid="{839EDFE6-8D0B-4FFE-A1E5-F25402FA9E0A}"/>
-    <hyperlink ref="H53" r:id="rId144" xr:uid="{9CEABF8E-92CB-42D4-9856-7DC9672D1154}"/>
-    <hyperlink ref="H54" r:id="rId145" xr:uid="{21182E94-B105-4578-A93C-48761C09D248}"/>
-    <hyperlink ref="H55" r:id="rId146" xr:uid="{8087B7C3-5558-4634-9DE3-D37D238FBE7A}"/>
-    <hyperlink ref="H56" r:id="rId147" xr:uid="{210FDF1B-B905-4653-98B4-48D2F23015DC}"/>
-    <hyperlink ref="H57" r:id="rId148" xr:uid="{9CC71827-A17A-4E06-B934-F58BCDF38FCD}"/>
-    <hyperlink ref="H58" r:id="rId149" xr:uid="{3857DAF8-744F-493D-817A-22EC7DCBCB37}"/>
-    <hyperlink ref="H59" r:id="rId150" xr:uid="{378F9306-BEF7-4407-9436-3FEF2AA7D359}"/>
-    <hyperlink ref="AN36" r:id="rId151" xr:uid="{BFEFF9F5-3B0D-4D18-BF94-27581A4F5A98}"/>
-    <hyperlink ref="AN37" r:id="rId152" xr:uid="{648D6E5E-4894-4A30-886F-DB44DA350B29}"/>
-    <hyperlink ref="AN38" r:id="rId153" xr:uid="{9CC80D11-F41A-43D1-93BF-DC75792AEE62}"/>
-    <hyperlink ref="AN39" r:id="rId154" xr:uid="{7F141950-D0CF-4A0D-AEB0-21CACE173804}"/>
-    <hyperlink ref="AN40" r:id="rId155" xr:uid="{E764CDC8-8654-4D1F-81C8-1D023809187E}"/>
-    <hyperlink ref="AN41" r:id="rId156" xr:uid="{B8ED3ABE-9E5C-4DC4-8C3F-E4BFB3730A23}"/>
-    <hyperlink ref="AN42" r:id="rId157" xr:uid="{392F7009-8ADE-4125-ADEC-6F01BFC4A2AD}"/>
-    <hyperlink ref="AN43" r:id="rId158" xr:uid="{79637454-50B7-4847-B438-B8A3C1EF0252}"/>
-    <hyperlink ref="AN44" r:id="rId159" xr:uid="{E06D6D5B-ECE0-40C8-A7DC-7A8744DEF643}"/>
-    <hyperlink ref="AN45" r:id="rId160" xr:uid="{52DFE524-418E-486F-B081-397A37475A7D}"/>
-    <hyperlink ref="AN46" r:id="rId161" xr:uid="{242F9C70-FF17-40F8-993C-642B0CF2815B}"/>
-    <hyperlink ref="AN47" r:id="rId162" xr:uid="{22C61701-7024-4DBF-8D8C-588AD8CFDDD1}"/>
-    <hyperlink ref="AN48" r:id="rId163" xr:uid="{E8E09B5B-8090-4138-B55D-5F1270026918}"/>
-    <hyperlink ref="AN49" r:id="rId164" xr:uid="{910EF96E-90FD-4117-8E03-E6A61629F823}"/>
-    <hyperlink ref="AN50" r:id="rId165" xr:uid="{03C8C07F-36FE-4E32-AF28-1BA52241098A}"/>
-    <hyperlink ref="AN51" r:id="rId166" xr:uid="{0C312E35-ED59-420C-888A-D89E6B73A929}"/>
-    <hyperlink ref="AN52" r:id="rId167" xr:uid="{045B1A48-0600-420F-BA13-EEBE81C3D59B}"/>
-    <hyperlink ref="AN53" r:id="rId168" xr:uid="{B71D7D9B-9EEA-4122-BE01-C61FB9ACEC6B}"/>
-    <hyperlink ref="AN54" r:id="rId169" xr:uid="{378BFF91-8F00-428A-BC3A-30BE6481CD14}"/>
-    <hyperlink ref="AN55" r:id="rId170" xr:uid="{8CCA7B23-32EA-4D8D-8647-B5499F86E07B}"/>
-    <hyperlink ref="AN56" r:id="rId171" xr:uid="{B816BBFE-D0DB-4746-80E9-7BE2A61FBC1F}"/>
-    <hyperlink ref="AN57" r:id="rId172" xr:uid="{0B9688BB-99EC-45D9-86CF-ECCC79D3DA4F}"/>
-    <hyperlink ref="AN58" r:id="rId173" xr:uid="{72E9D8A7-A025-4124-A826-BB8E0D18947B}"/>
-    <hyperlink ref="AN59" r:id="rId174" xr:uid="{E15B264A-9C72-4CE0-91E3-D9907EA068A3}"/>
-    <hyperlink ref="G60" r:id="rId175" xr:uid="{872AE040-B879-4AD1-997C-909436F68DB1}"/>
-    <hyperlink ref="G61" r:id="rId176" xr:uid="{CFB59C6F-2218-4973-A525-7B0A888BE858}"/>
-    <hyperlink ref="G62" r:id="rId177" xr:uid="{29701550-5596-414D-81F2-23AD1925FF79}"/>
-    <hyperlink ref="G63" r:id="rId178" xr:uid="{F387BD60-189C-45BB-8701-74008C1A0BB2}"/>
-    <hyperlink ref="G64" r:id="rId179" xr:uid="{B7EEB5D2-B8E3-42C7-B95C-717D5FA6DF6D}"/>
-    <hyperlink ref="G65" r:id="rId180" xr:uid="{5BF2E331-25A6-403B-872A-5B1E01AE8E69}"/>
-    <hyperlink ref="G66" r:id="rId181" xr:uid="{1441B253-0FCC-42ED-B8CA-56F3E5BDB2F2}"/>
-    <hyperlink ref="G67" r:id="rId182" xr:uid="{FDFA1580-9F70-4A64-A735-9FFB0DF2F3E6}"/>
-    <hyperlink ref="G68" r:id="rId183" xr:uid="{1B368A82-1DB3-45AF-B159-B25AE50218A3}"/>
-    <hyperlink ref="G69" r:id="rId184" xr:uid="{A4B84E3F-F602-42F0-9BE1-09B818161242}"/>
-    <hyperlink ref="H60" r:id="rId185" xr:uid="{243A896F-41FF-4276-A8D3-8DACC0B10974}"/>
-    <hyperlink ref="H61" r:id="rId186" xr:uid="{B9600CF8-8555-44EA-BED4-6F96B3F395B0}"/>
-    <hyperlink ref="H62" r:id="rId187" xr:uid="{A697061A-C4C7-48CD-9D7E-A3DE8BC0E819}"/>
-    <hyperlink ref="H63" r:id="rId188" xr:uid="{634B1D0A-AC67-4198-85BC-79D09BA07775}"/>
-    <hyperlink ref="H64" r:id="rId189" xr:uid="{551042ED-F924-45DB-97A8-E040F88FE3D2}"/>
-    <hyperlink ref="H65" r:id="rId190" xr:uid="{A174D823-BE75-4E43-83A0-7AD3FFC856C5}"/>
-    <hyperlink ref="H66" r:id="rId191" xr:uid="{593B79FB-7A59-4868-AC28-D637B33D3BE7}"/>
-    <hyperlink ref="H67" r:id="rId192" xr:uid="{C1F795CB-4879-4F5A-84BC-23F12CF10FEA}"/>
-    <hyperlink ref="H68" r:id="rId193" xr:uid="{7F1CC78D-9616-49CD-A81D-887AB21FD1A1}"/>
-    <hyperlink ref="H69" r:id="rId194" xr:uid="{27318E59-DA28-4622-BB74-FC9A4DFF5632}"/>
-    <hyperlink ref="AN60" r:id="rId195" xr:uid="{42A72C61-88CC-4E95-8628-DCA7D2E66B5A}"/>
-    <hyperlink ref="AN61" r:id="rId196" xr:uid="{98D0D019-D8FF-4E07-B775-F1FAB73E0724}"/>
-    <hyperlink ref="AN62" r:id="rId197" xr:uid="{C75B22A1-495A-47FD-BD04-4D6871E63DED}"/>
-    <hyperlink ref="AN63" r:id="rId198" xr:uid="{EAE33FB9-531C-4B2D-838D-5104C1C45070}"/>
-    <hyperlink ref="AN64" r:id="rId199" xr:uid="{1F55AA4D-90C4-4A11-A59E-A1DE868D0263}"/>
-    <hyperlink ref="AN65" r:id="rId200" xr:uid="{4B183A50-A94A-4A06-9631-5A6B94FD67A0}"/>
-    <hyperlink ref="AN66" r:id="rId201" xr:uid="{3B22B4CD-BD20-4200-9959-F05CD127965C}"/>
-    <hyperlink ref="AN67" r:id="rId202" xr:uid="{97CE1B15-51FC-451A-8ECC-F2D1C987DD3A}"/>
-    <hyperlink ref="AN68" r:id="rId203" xr:uid="{8EB0706D-6F5B-4BD5-B7D5-1D6306752D44}"/>
-    <hyperlink ref="AN69" r:id="rId204" xr:uid="{8625B8A4-72E9-4439-8298-A9DBD0986726}"/>
+    <hyperlink ref="G25" r:id="rId49" xr:uid="{E46CA761-281C-47BA-8DFA-FE2DFCA3FFF4}"/>
+    <hyperlink ref="H25" r:id="rId50" xr:uid="{44467B57-8C98-4068-BE7D-7AC280F7D02B}"/>
+    <hyperlink ref="G26" r:id="rId51" xr:uid="{7E1DFCCC-867D-4E48-8EB5-90CFB5B46849}"/>
+    <hyperlink ref="H26" r:id="rId52" xr:uid="{C9B34EE5-FD38-4CF3-BCE2-0387AB9CFC51}"/>
+    <hyperlink ref="G27" r:id="rId53" xr:uid="{D22A6EAE-624B-41F4-B983-E12062C84A52}"/>
+    <hyperlink ref="H27" r:id="rId54" xr:uid="{2642CA26-205C-4AB5-AA2C-9CFF876D9E0F}"/>
+    <hyperlink ref="G28" r:id="rId55" xr:uid="{5619EB6E-978B-49FE-B975-704C7472D76B}"/>
+    <hyperlink ref="H28" r:id="rId56" xr:uid="{E29FA321-FC3E-42D5-819A-EAE3F2D1BA73}"/>
+    <hyperlink ref="G29" r:id="rId57" xr:uid="{36A1E00C-8296-4328-850F-F0C1AD3C4257}"/>
+    <hyperlink ref="H29" r:id="rId58" xr:uid="{3C2B024E-F8C0-483D-81B8-0417D7B79BD6}"/>
+    <hyperlink ref="G30" r:id="rId59" xr:uid="{4A08B599-266C-4D12-A38D-E0E297FA69BB}"/>
+    <hyperlink ref="H30" r:id="rId60" xr:uid="{0FBF07CE-014F-40E6-A1A1-5848B325B5ED}"/>
+    <hyperlink ref="G31" r:id="rId61" xr:uid="{7509B5FE-4570-4153-ADE5-4350FBF87F6A}"/>
+    <hyperlink ref="H31" r:id="rId62" xr:uid="{E020CBA2-9195-4A3A-90E2-E87CB80C4E8D}"/>
+    <hyperlink ref="G32" r:id="rId63" xr:uid="{07A69681-F389-4015-8C43-08D2737BA8A1}"/>
+    <hyperlink ref="H32" r:id="rId64" xr:uid="{9C47ED04-CB8C-4948-A10C-CA027B0E9B20}"/>
+    <hyperlink ref="G33" r:id="rId65" xr:uid="{4E3E3D66-BBD4-4146-BBF4-DB605E6B9751}"/>
+    <hyperlink ref="H33" r:id="rId66" xr:uid="{2A5E80CA-4DB7-41E9-B8FD-CF6C28ED37D3}"/>
+    <hyperlink ref="G34" r:id="rId67" xr:uid="{B9BD559F-55E3-4B3C-A70F-23BAB87175ED}"/>
+    <hyperlink ref="H34" r:id="rId68" xr:uid="{65966D28-A4C1-42B4-825D-67FA946A06AE}"/>
+    <hyperlink ref="AN4" r:id="rId69" xr:uid="{3CA4F8A7-1822-492B-88C4-1B7684096CF2}"/>
+    <hyperlink ref="AN5" r:id="rId70" xr:uid="{C3A7A290-6E33-47FC-8A97-A9345A5A24CD}"/>
+    <hyperlink ref="AN6" r:id="rId71" xr:uid="{53A0AE39-277D-4F8E-87B7-D501C8C0736C}"/>
+    <hyperlink ref="AN7" r:id="rId72" xr:uid="{CA42B070-4596-410A-9D32-ECEB420EC0DD}"/>
+    <hyperlink ref="AN8" r:id="rId73" xr:uid="{D14606B1-A078-46AA-88FD-E745C244E556}"/>
+    <hyperlink ref="AN9" r:id="rId74" xr:uid="{A646F727-3BFC-4E7C-9D0F-53E436F424B7}"/>
+    <hyperlink ref="AN10" r:id="rId75" xr:uid="{8C7D6DF0-3519-4DF0-B39F-4DD3E688F477}"/>
+    <hyperlink ref="AN11" r:id="rId76" xr:uid="{73F4FA85-ECC9-4D66-829B-EAA079C932F5}"/>
+    <hyperlink ref="AN12" r:id="rId77" xr:uid="{CF0BE034-C493-4C4A-A91E-6F33D6A77C7B}"/>
+    <hyperlink ref="AN13" r:id="rId78" xr:uid="{4B2BAB05-FF3F-4753-97E9-B83C48262BEE}"/>
+    <hyperlink ref="AN14" r:id="rId79" xr:uid="{F1FED365-EF16-4036-86B7-D0FE63F35263}"/>
+    <hyperlink ref="AN15" r:id="rId80" xr:uid="{0584BA22-C030-4106-9B92-3A0495D4CE1C}"/>
+    <hyperlink ref="AN16" r:id="rId81" xr:uid="{292935DC-EBED-4A6E-9779-CEA76B6B3788}"/>
+    <hyperlink ref="AN17" r:id="rId82" xr:uid="{3E07637E-5CE2-4CB1-9CAF-F8A144C9E96F}"/>
+    <hyperlink ref="AN18" r:id="rId83" xr:uid="{2B6293C3-1A4A-4A8B-98AF-4A676C011F68}"/>
+    <hyperlink ref="AN19" r:id="rId84" xr:uid="{2951BFED-31C5-4974-B4CE-05D324D34D42}"/>
+    <hyperlink ref="AN20" r:id="rId85" xr:uid="{540C4582-671B-4CDA-8DC1-DC9804009EC0}"/>
+    <hyperlink ref="AN21" r:id="rId86" xr:uid="{551573B8-0F0C-4C43-AEE7-28D1D2567CD0}"/>
+    <hyperlink ref="AN22" r:id="rId87" xr:uid="{361CB1A8-E6F9-44E1-9662-827ED46F1E14}"/>
+    <hyperlink ref="AN23" r:id="rId88" xr:uid="{CDA1FDDF-9D36-48DF-9B01-B9C0B907AD09}"/>
+    <hyperlink ref="AN24" r:id="rId89" xr:uid="{F900E687-DA83-4043-AA2B-EC073F0313BC}"/>
+    <hyperlink ref="AN25" r:id="rId90" xr:uid="{C642E85F-8556-4A5B-879A-2CE39B7FD23B}"/>
+    <hyperlink ref="AN26" r:id="rId91" xr:uid="{22E19612-1100-4E65-B53B-AE4876C6C07E}"/>
+    <hyperlink ref="AN27" r:id="rId92" xr:uid="{0C7B9F55-2FD2-4785-A0E8-E1597E242CEF}"/>
+    <hyperlink ref="AN28" r:id="rId93" xr:uid="{4901E2C3-CCDA-4E8E-88D4-0E9987624CA4}"/>
+    <hyperlink ref="AN29" r:id="rId94" xr:uid="{CBDDBA85-5263-4598-837C-528B6D348E2B}"/>
+    <hyperlink ref="AN30" r:id="rId95" xr:uid="{E757103C-1331-4D69-A0A1-6FC4CAAB8F18}"/>
+    <hyperlink ref="AN31" r:id="rId96" xr:uid="{D9BC9E5C-4CA9-41FD-B58E-AF7600269307}"/>
+    <hyperlink ref="AN32" r:id="rId97" xr:uid="{73E4E211-B146-4056-B462-4F20F580BA21}"/>
+    <hyperlink ref="AN33" r:id="rId98" xr:uid="{A0FC9CBE-49B1-4082-B625-A06A71D8B688}"/>
+    <hyperlink ref="AN34" r:id="rId99" xr:uid="{00B7A782-6CD3-4C75-BDDD-058B384588F4}"/>
+    <hyperlink ref="G35" r:id="rId100" xr:uid="{B620D0BF-033D-4129-8CC3-44E5E1FCE96D}"/>
+    <hyperlink ref="G36" r:id="rId101" xr:uid="{D7FB1204-EA24-4D1D-9179-F7D9E5F735AD}"/>
+    <hyperlink ref="G37" r:id="rId102" xr:uid="{FE45638A-D824-4669-9009-67B97DDA06E1}"/>
+    <hyperlink ref="G38" r:id="rId103" xr:uid="{89445CF2-1F61-4D51-B168-21F32E1E5074}"/>
+    <hyperlink ref="G39" r:id="rId104" xr:uid="{9F83FD91-41A3-4BB7-86A0-6CE68D633388}"/>
+    <hyperlink ref="G40" r:id="rId105" xr:uid="{32E9E966-6170-4FC6-BD9F-5C40A3A39BDC}"/>
+    <hyperlink ref="G41" r:id="rId106" xr:uid="{2A413314-6AB9-4816-8E52-FFEBCAB829F5}"/>
+    <hyperlink ref="G42" r:id="rId107" xr:uid="{95B4C6FA-84FC-42F2-B84A-66D8C83BBCED}"/>
+    <hyperlink ref="G43" r:id="rId108" xr:uid="{6AE5EC39-7457-406C-B9E8-4764FF9E71EE}"/>
+    <hyperlink ref="G44" r:id="rId109" xr:uid="{6B324292-B9CE-4496-9632-D52B98C7AB02}"/>
+    <hyperlink ref="G45" r:id="rId110" xr:uid="{0B7844A1-6308-4F48-BA1B-F827F1999B13}"/>
+    <hyperlink ref="G46" r:id="rId111" xr:uid="{7F7A748E-B2DF-4AC8-A429-439492DD340F}"/>
+    <hyperlink ref="G47" r:id="rId112" xr:uid="{A62093C9-6125-4691-BB5F-2344CC34BF97}"/>
+    <hyperlink ref="G48" r:id="rId113" xr:uid="{A3265537-DB3F-4B55-9777-FBA91C16E829}"/>
+    <hyperlink ref="G49" r:id="rId114" xr:uid="{56C6B16B-775C-4B65-8C92-D228D8ED1051}"/>
+    <hyperlink ref="G50" r:id="rId115" xr:uid="{E9998D82-6593-4A4C-9A61-1C9E2F9FE6F0}"/>
+    <hyperlink ref="G51" r:id="rId116" xr:uid="{5AF090CE-2FC0-4270-8399-3C18CE80ED8D}"/>
+    <hyperlink ref="G52" r:id="rId117" xr:uid="{F5A7E66E-0696-4A59-8E9C-6A33B79984C0}"/>
+    <hyperlink ref="G53" r:id="rId118" xr:uid="{D5BF7878-A5DA-4B83-8438-293EC65A382B}"/>
+    <hyperlink ref="G54" r:id="rId119" xr:uid="{FB039C7D-C03C-49B9-89C4-91F94AE6D0FE}"/>
+    <hyperlink ref="G55" r:id="rId120" xr:uid="{A71B16BC-6B98-4230-976B-CE576389681A}"/>
+    <hyperlink ref="G56" r:id="rId121" xr:uid="{B6D41E06-FB84-42A2-9305-B7D9A7987FEA}"/>
+    <hyperlink ref="G57" r:id="rId122" xr:uid="{4AD26144-00F8-48DE-B251-7E49C829C73D}"/>
+    <hyperlink ref="G58" r:id="rId123" xr:uid="{FABAD3ED-30F7-4358-BCDF-51710DE9660A}"/>
+    <hyperlink ref="H35" r:id="rId124" xr:uid="{C1C03C6E-7108-425B-AC03-FBF005A4DB5E}"/>
+    <hyperlink ref="H36" r:id="rId125" xr:uid="{F80B28B9-3587-4F28-BCCF-C60626C03725}"/>
+    <hyperlink ref="H37" r:id="rId126" xr:uid="{883C2D55-3DF5-41AE-B75E-3FBB98B0EE81}"/>
+    <hyperlink ref="H38" r:id="rId127" xr:uid="{1707D531-29BE-4896-8D94-99C64100E090}"/>
+    <hyperlink ref="H39" r:id="rId128" xr:uid="{A51C2798-2FFB-4173-B312-F1DECEA1B966}"/>
+    <hyperlink ref="H40" r:id="rId129" xr:uid="{A107C74D-EA63-4145-9D31-4FF7919A87AF}"/>
+    <hyperlink ref="H41" r:id="rId130" xr:uid="{6A22AAB2-4CC1-42DE-8936-8BB3FADF942C}"/>
+    <hyperlink ref="H42" r:id="rId131" xr:uid="{697D2CE5-58FC-438A-AE0B-51C2BF28E90E}"/>
+    <hyperlink ref="H43" r:id="rId132" xr:uid="{45321EF8-1DD2-4D57-B913-1284147B4A3B}"/>
+    <hyperlink ref="H44" r:id="rId133" xr:uid="{0E646CBD-26E5-4175-B61D-E4769B47FD63}"/>
+    <hyperlink ref="H45" r:id="rId134" xr:uid="{D4AF459C-947A-4EAB-9463-C3C5F232E345}"/>
+    <hyperlink ref="H46" r:id="rId135" xr:uid="{C7131782-C796-45BF-B5DD-A7300BC0C9DE}"/>
+    <hyperlink ref="H47" r:id="rId136" xr:uid="{8CC6DCA7-7AE5-423C-B461-50809ED5F667}"/>
+    <hyperlink ref="H48" r:id="rId137" xr:uid="{644AFB58-051E-4619-B842-7DEC4E85376E}"/>
+    <hyperlink ref="H49" r:id="rId138" xr:uid="{858C5AEE-7E9F-4122-B1CE-48B5480DE4DE}"/>
+    <hyperlink ref="H50" r:id="rId139" xr:uid="{B3F91ABF-AA50-4485-A68C-FDB529E1C6EE}"/>
+    <hyperlink ref="H51" r:id="rId140" xr:uid="{839EDFE6-8D0B-4FFE-A1E5-F25402FA9E0A}"/>
+    <hyperlink ref="H52" r:id="rId141" xr:uid="{9CEABF8E-92CB-42D4-9856-7DC9672D1154}"/>
+    <hyperlink ref="H53" r:id="rId142" xr:uid="{21182E94-B105-4578-A93C-48761C09D248}"/>
+    <hyperlink ref="H54" r:id="rId143" xr:uid="{8087B7C3-5558-4634-9DE3-D37D238FBE7A}"/>
+    <hyperlink ref="H55" r:id="rId144" xr:uid="{210FDF1B-B905-4653-98B4-48D2F23015DC}"/>
+    <hyperlink ref="H56" r:id="rId145" xr:uid="{9CC71827-A17A-4E06-B934-F58BCDF38FCD}"/>
+    <hyperlink ref="H57" r:id="rId146" xr:uid="{3857DAF8-744F-493D-817A-22EC7DCBCB37}"/>
+    <hyperlink ref="H58" r:id="rId147" xr:uid="{378F9306-BEF7-4407-9436-3FEF2AA7D359}"/>
+    <hyperlink ref="AN35" r:id="rId148" xr:uid="{BFEFF9F5-3B0D-4D18-BF94-27581A4F5A98}"/>
+    <hyperlink ref="AN36" r:id="rId149" xr:uid="{648D6E5E-4894-4A30-886F-DB44DA350B29}"/>
+    <hyperlink ref="AN37" r:id="rId150" xr:uid="{9CC80D11-F41A-43D1-93BF-DC75792AEE62}"/>
+    <hyperlink ref="AN38" r:id="rId151" xr:uid="{7F141950-D0CF-4A0D-AEB0-21CACE173804}"/>
+    <hyperlink ref="AN39" r:id="rId152" xr:uid="{E764CDC8-8654-4D1F-81C8-1D023809187E}"/>
+    <hyperlink ref="AN40" r:id="rId153" xr:uid="{B8ED3ABE-9E5C-4DC4-8C3F-E4BFB3730A23}"/>
+    <hyperlink ref="AN41" r:id="rId154" xr:uid="{392F7009-8ADE-4125-ADEC-6F01BFC4A2AD}"/>
+    <hyperlink ref="AN42" r:id="rId155" xr:uid="{79637454-50B7-4847-B438-B8A3C1EF0252}"/>
+    <hyperlink ref="AN43" r:id="rId156" xr:uid="{E06D6D5B-ECE0-40C8-A7DC-7A8744DEF643}"/>
+    <hyperlink ref="AN44" r:id="rId157" xr:uid="{52DFE524-418E-486F-B081-397A37475A7D}"/>
+    <hyperlink ref="AN45" r:id="rId158" xr:uid="{242F9C70-FF17-40F8-993C-642B0CF2815B}"/>
+    <hyperlink ref="AN46" r:id="rId159" xr:uid="{22C61701-7024-4DBF-8D8C-588AD8CFDDD1}"/>
+    <hyperlink ref="AN47" r:id="rId160" xr:uid="{E8E09B5B-8090-4138-B55D-5F1270026918}"/>
+    <hyperlink ref="AN48" r:id="rId161" xr:uid="{910EF96E-90FD-4117-8E03-E6A61629F823}"/>
+    <hyperlink ref="AN49" r:id="rId162" xr:uid="{03C8C07F-36FE-4E32-AF28-1BA52241098A}"/>
+    <hyperlink ref="AN50" r:id="rId163" xr:uid="{0C312E35-ED59-420C-888A-D89E6B73A929}"/>
+    <hyperlink ref="AN51" r:id="rId164" xr:uid="{045B1A48-0600-420F-BA13-EEBE81C3D59B}"/>
+    <hyperlink ref="AN52" r:id="rId165" xr:uid="{B71D7D9B-9EEA-4122-BE01-C61FB9ACEC6B}"/>
+    <hyperlink ref="AN53" r:id="rId166" xr:uid="{378BFF91-8F00-428A-BC3A-30BE6481CD14}"/>
+    <hyperlink ref="AN54" r:id="rId167" xr:uid="{8CCA7B23-32EA-4D8D-8647-B5499F86E07B}"/>
+    <hyperlink ref="AN55" r:id="rId168" xr:uid="{B816BBFE-D0DB-4746-80E9-7BE2A61FBC1F}"/>
+    <hyperlink ref="AN56" r:id="rId169" xr:uid="{0B9688BB-99EC-45D9-86CF-ECCC79D3DA4F}"/>
+    <hyperlink ref="AN57" r:id="rId170" xr:uid="{72E9D8A7-A025-4124-A826-BB8E0D18947B}"/>
+    <hyperlink ref="AN58" r:id="rId171" xr:uid="{E15B264A-9C72-4CE0-91E3-D9907EA068A3}"/>
+    <hyperlink ref="G59" r:id="rId172" xr:uid="{872AE040-B879-4AD1-997C-909436F68DB1}"/>
+    <hyperlink ref="G60" r:id="rId173" xr:uid="{CFB59C6F-2218-4973-A525-7B0A888BE858}"/>
+    <hyperlink ref="G61" r:id="rId174" xr:uid="{29701550-5596-414D-81F2-23AD1925FF79}"/>
+    <hyperlink ref="G62" r:id="rId175" xr:uid="{F387BD60-189C-45BB-8701-74008C1A0BB2}"/>
+    <hyperlink ref="G63" r:id="rId176" xr:uid="{B7EEB5D2-B8E3-42C7-B95C-717D5FA6DF6D}"/>
+    <hyperlink ref="G64" r:id="rId177" xr:uid="{5BF2E331-25A6-403B-872A-5B1E01AE8E69}"/>
+    <hyperlink ref="G65" r:id="rId178" xr:uid="{1441B253-0FCC-42ED-B8CA-56F3E5BDB2F2}"/>
+    <hyperlink ref="G66" r:id="rId179" xr:uid="{FDFA1580-9F70-4A64-A735-9FFB0DF2F3E6}"/>
+    <hyperlink ref="G67" r:id="rId180" xr:uid="{1B368A82-1DB3-45AF-B159-B25AE50218A3}"/>
+    <hyperlink ref="G68" r:id="rId181" xr:uid="{A4B84E3F-F602-42F0-9BE1-09B818161242}"/>
+    <hyperlink ref="H59" r:id="rId182" xr:uid="{243A896F-41FF-4276-A8D3-8DACC0B10974}"/>
+    <hyperlink ref="H60" r:id="rId183" xr:uid="{B9600CF8-8555-44EA-BED4-6F96B3F395B0}"/>
+    <hyperlink ref="H61" r:id="rId184" xr:uid="{A697061A-C4C7-48CD-9D7E-A3DE8BC0E819}"/>
+    <hyperlink ref="H62" r:id="rId185" xr:uid="{634B1D0A-AC67-4198-85BC-79D09BA07775}"/>
+    <hyperlink ref="H63" r:id="rId186" xr:uid="{551042ED-F924-45DB-97A8-E040F88FE3D2}"/>
+    <hyperlink ref="H64" r:id="rId187" xr:uid="{A174D823-BE75-4E43-83A0-7AD3FFC856C5}"/>
+    <hyperlink ref="H65" r:id="rId188" xr:uid="{593B79FB-7A59-4868-AC28-D637B33D3BE7}"/>
+    <hyperlink ref="H66" r:id="rId189" xr:uid="{C1F795CB-4879-4F5A-84BC-23F12CF10FEA}"/>
+    <hyperlink ref="H67" r:id="rId190" xr:uid="{7F1CC78D-9616-49CD-A81D-887AB21FD1A1}"/>
+    <hyperlink ref="H68" r:id="rId191" xr:uid="{27318E59-DA28-4622-BB74-FC9A4DFF5632}"/>
+    <hyperlink ref="AN59" r:id="rId192" xr:uid="{42A72C61-88CC-4E95-8628-DCA7D2E66B5A}"/>
+    <hyperlink ref="AN60" r:id="rId193" xr:uid="{98D0D019-D8FF-4E07-B775-F1FAB73E0724}"/>
+    <hyperlink ref="AN61" r:id="rId194" xr:uid="{C75B22A1-495A-47FD-BD04-4D6871E63DED}"/>
+    <hyperlink ref="AN62" r:id="rId195" xr:uid="{EAE33FB9-531C-4B2D-838D-5104C1C45070}"/>
+    <hyperlink ref="AN63" r:id="rId196" xr:uid="{1F55AA4D-90C4-4A11-A59E-A1DE868D0263}"/>
+    <hyperlink ref="AN64" r:id="rId197" xr:uid="{4B183A50-A94A-4A06-9631-5A6B94FD67A0}"/>
+    <hyperlink ref="AN65" r:id="rId198" xr:uid="{3B22B4CD-BD20-4200-9959-F05CD127965C}"/>
+    <hyperlink ref="AN66" r:id="rId199" xr:uid="{97CE1B15-51FC-451A-8ECC-F2D1C987DD3A}"/>
+    <hyperlink ref="AN67" r:id="rId200" xr:uid="{8EB0706D-6F5B-4BD5-B7D5-1D6306752D44}"/>
+    <hyperlink ref="AN68" r:id="rId201" xr:uid="{8625B8A4-72E9-4439-8298-A9DBD0986726}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
